--- a/Finflux Automation Excels/Client/4992-GlimLoan-Disburse-MakeRepayment-waiveIterest-VerifyTabs.xlsx
+++ b/Finflux Automation Excels/Client/4992-GlimLoan-Disburse-MakeRepayment-waiveIterest-VerifyTabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
   <si>
     <t>office</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>disbursementon</t>
-  </si>
-  <si>
-    <t>GlimLoanSelectClient</t>
   </si>
   <si>
     <t>GlimLoanPrincipalForClient1</t>
@@ -945,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -953,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1013,22 +1010,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,51 +1135,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1513,118 +1510,118 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="J1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1644,19 +1641,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="18"/>
     </row>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1784,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,7 +1849,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,7 +1914,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1982,7 +1979,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2005,34 +2002,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -2042,13 +2039,13 @@
         <v>313</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="22">
         <v>42050</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="19">
         <v>2493</v>
@@ -2076,13 +2073,13 @@
         <v>312</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="22">
         <v>42036</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="21">
         <v>594</v>
@@ -2110,13 +2107,13 @@
         <v>308</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="22">
         <v>42005</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="19">
         <v>12100</v>
@@ -2160,31 +2157,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2192,25 +2189,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="27">
         <v>42005</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>116</v>
       </c>
       <c r="I2" s="26"/>
     </row>
@@ -2219,26 +2216,26 @@
         <v>14</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="27">
         <v>42005</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>114</v>
-      </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2277,31 +2274,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2309,25 +2306,25 @@
         <v>155</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="27">
         <v>42064</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" t="s">
         <v>114</v>
       </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
       <c r="I2" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,25 +2332,25 @@
         <v>156</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="27">
         <v>42064</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>120</v>
-      </c>
       <c r="I3" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2361,26 +2358,26 @@
         <v>157</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="27">
         <v>42064</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,25 +2385,25 @@
         <v>155</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="27">
         <v>42064</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
       <c r="F5" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,25 +2411,25 @@
         <v>156</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="27">
         <v>42064</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
         <v>118</v>
       </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
       <c r="F6" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,25 +2437,25 @@
         <v>157</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="27">
         <v>42064</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>114</v>
-      </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +2864,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,8 +2920,8 @@
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
+      <c r="B6" s="9">
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2929,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="9">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2937,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="9">
-        <v>1800</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="9">
-        <v>2300</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,15 +2953,15 @@
         <v>30</v>
       </c>
       <c r="B10" s="9">
-        <v>2600</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9">
-        <v>4200</v>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,55 +2969,47 @@
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="B13" s="8">
+        <v>42005</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8">
-        <v>42005</v>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="B16" s="8">
+        <v>42005</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="8">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3044,23 +3033,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="16">
         <v>42036</v>
@@ -3068,34 +3057,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3119,15 +3108,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="16">
         <v>42050</v>
@@ -3135,7 +3124,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="17">
         <v>5000</v>
@@ -3143,7 +3132,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>252</v>
@@ -3151,7 +3140,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>483</v>
@@ -3159,7 +3148,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>546</v>
@@ -3167,7 +3156,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>256</v>
@@ -3175,7 +3164,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>956</v>
@@ -3183,7 +3172,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="17">
         <v>2000</v>
@@ -3191,7 +3180,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>

--- a/Finflux Automation Excels/Client/4992-GlimLoan-Disburse-MakeRepayment-waiveIterest-VerifyTabs.xlsx
+++ b/Finflux Automation Excels/Client/4992-GlimLoan-Disburse-MakeRepayment-waiveIterest-VerifyTabs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
   <si>
     <t>office</t>
   </si>
@@ -182,18 +182,6 @@
   </si>
   <si>
     <t>Submit</t>
-  </si>
-  <si>
-    <t>GlimLoanWaiveInterestForClient1</t>
-  </si>
-  <si>
-    <t>GlimLoanWaiveInterestForClient3</t>
-  </si>
-  <si>
-    <t>GlimLoanWaiveInterestForClient4</t>
-  </si>
-  <si>
-    <t>Click</t>
   </si>
   <si>
     <t>clickonmakerepayment</t>
@@ -942,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -950,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1010,22 +998,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,51 +1123,51 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1510,118 +1498,118 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="H4" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1641,19 +1629,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="18"/>
     </row>
@@ -1719,7 +1707,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,7 +1772,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,7 +1837,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1914,7 +1902,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,7 +1967,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2002,34 +1990,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -2039,13 +2027,13 @@
         <v>313</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" s="22">
         <v>42050</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E2" s="19">
         <v>2493</v>
@@ -2073,13 +2061,13 @@
         <v>312</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="22">
         <v>42036</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E3" s="21">
         <v>594</v>
@@ -2107,13 +2095,13 @@
         <v>308</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="22">
         <v>42005</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4" s="19">
         <v>12100</v>
@@ -2157,31 +2145,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2189,25 +2177,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" s="27">
         <v>42005</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>115</v>
       </c>
       <c r="I2" s="26"/>
     </row>
@@ -2216,26 +2204,26 @@
         <v>14</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="27">
         <v>42005</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
         <v>112</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2274,31 +2262,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2306,25 +2294,25 @@
         <v>155</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" s="27">
         <v>42064</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2332,25 +2320,25 @@
         <v>156</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="27">
         <v>42064</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2358,26 +2346,26 @@
         <v>157</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="27">
         <v>42064</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" t="s">
-        <v>121</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2385,25 +2373,25 @@
         <v>155</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="27">
         <v>42064</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>122</v>
-      </c>
       <c r="I5" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2411,25 +2399,25 @@
         <v>156</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C6" s="27">
         <v>42064</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2437,25 +2425,25 @@
         <v>157</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="27">
         <v>42064</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
       <c r="H7" s="28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3019,10 +3007,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,42 +3036,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16">
-        <v>42036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3108,10 +3064,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3080,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="17">
         <v>5000</v>
@@ -3132,7 +3088,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>252</v>
@@ -3140,7 +3096,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>483</v>
@@ -3148,7 +3104,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>546</v>
@@ -3156,7 +3112,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>256</v>
@@ -3164,7 +3120,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>956</v>
@@ -3172,7 +3128,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="17">
         <v>2000</v>
@@ -3180,7 +3136,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>

--- a/Finflux Automation Excels/Client/4992-GlimLoan-Disburse-MakeRepayment-waiveIterest-VerifyTabs.xlsx
+++ b/Finflux Automation Excels/Client/4992-GlimLoan-Disburse-MakeRepayment-waiveIterest-VerifyTabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="140">
   <si>
     <t>office</t>
   </si>
@@ -443,6 +443,18 @@
   </si>
   <si>
     <t>$ 2,493</t>
+  </si>
+  <si>
+    <t>waive</t>
+  </si>
+  <si>
+    <t>GlimLoanWaiveInterestForClient1</t>
+  </si>
+  <si>
+    <t>GlimLoanWaiveInterestForClient3</t>
+  </si>
+  <si>
+    <t>GlimLoanWaiveInterestForClient4</t>
   </si>
 </sst>
 </file>
@@ -454,7 +466,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmm\ yy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,12 +499,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +515,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -570,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -596,9 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -616,10 +632,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -633,6 +649,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,116 +1011,116 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="16">
         <v>12100</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>1777.26</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
         <v>10322.74</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>2036.92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>1198</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>170.38</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>594</v>
       </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
         <v>433.62</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>141.44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>1942</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>545.36</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>1396.64</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>0</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="A5" s="18">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,7 +1132,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,362 +1142,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19">
         <v>42005</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16">
         <v>12100</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21">
-        <v>0</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21">
-        <v>0</v>
-      </c>
-      <c r="L2" s="21">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>31</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>42036</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="20">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17">
         <v>1881.03</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="17">
         <v>10218.969999999999</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>335.29</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>323.68</v>
       </c>
-      <c r="J3" s="21">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
         <v>2540</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <v>2083.7600000000002</v>
       </c>
-      <c r="M3" s="21">
-        <v>0</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20">
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="17">
         <v>2083.7600000000002</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="18">
         <v>166.24</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="18">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>28</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>42064</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17">
         <v>1933.15</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>8285.82</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>283.17</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>323.68</v>
       </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
         <v>2540</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="18">
         <v>409.24</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="18">
         <v>409.24</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
         <v>140.4</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <v>1990.36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>31</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>42095</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17">
         <v>1986.72</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>6299.1</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <v>229.6</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>323.68</v>
       </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
         <v>2540</v>
       </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
         <v>113.84</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="17">
         <v>2426.16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>42125</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17">
         <v>2041.77</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>4257.33</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>174.55</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>323.68</v>
       </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
         <v>2540</v>
       </c>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21">
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
         <v>86.54</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="17">
         <v>2453.46</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>31</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>42156</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17">
         <v>2098.35</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>2158.98</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>117.97</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>323.68</v>
       </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
         <v>2540</v>
       </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21">
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
         <v>58.49</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="17">
         <v>2481.5100000000002</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <v>30</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>42186</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17">
         <v>2158.98</v>
       </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
         <v>57.42</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>323.60000000000002</v>
       </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
         <v>2540</v>
       </c>
-      <c r="L8" s="21">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21">
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
         <v>28.49</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="17">
         <v>2511.5100000000002</v>
       </c>
     </row>
@@ -1497,118 +1517,118 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="18" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1621,352 +1641,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="16">
         <v>1200</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>186.52</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
         <v>1013.48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>119</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>33.31</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
         <v>85.69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>193</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>32.17</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
         <v>160.83000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>0</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21">
+      <c r="A5" s="18">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>1800</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>386.32</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
         <v>1413.68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>178</v>
       </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
         <v>178</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>290</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>96.68</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
         <v>193.32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>0</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21">
+      <c r="A10" s="18">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>2300</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>357.52</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>1942.48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>228</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>65.14</v>
       </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
         <v>162.86000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>370</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>123.34</v>
       </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
         <v>246.66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>0</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21">
+      <c r="A15" s="18">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>2600</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>114.24</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
         <v>2485.7600000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>257</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>71.930000000000007</v>
       </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
         <v>185.07</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>419</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>69.83</v>
       </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21">
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
         <v>349.17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>0</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21">
+      <c r="A20" s="18">
+        <v>0</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <v>4200</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <v>732.66</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
         <v>3467.34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>416</v>
       </c>
-      <c r="B23" s="21">
-        <v>0</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="18">
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
         <v>416</v>
       </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>670</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <v>223.34</v>
       </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
         <v>446.66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>0</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21">
+      <c r="A25" s="18">
+        <v>0</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="21" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1989,140 +2009,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>313</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>42050</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="16">
         <v>2493</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>1777.26</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>170.38</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="18">
         <v>545.36</v>
       </c>
-      <c r="I2" s="21">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20">
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
         <v>10322.74</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>312</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>42036</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>594</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
         <v>594</v>
       </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>12100</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>308</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>42005</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>12100</v>
       </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
         <v>12100</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,85 +2164,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="23">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="24">
         <v>42005</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="23">
         <v>14</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>42005</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="23" t="s">
         <v>109</v>
       </c>
       <c r="G3" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2261,188 +2281,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="26">
         <v>155</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="24">
         <v>42064</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="26">
         <v>156</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>42064</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="26">
         <v>157</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <v>42064</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="26">
         <v>155</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>42064</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G5" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="26">
         <v>156</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>42064</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G6" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="26">
         <v>157</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>42064</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3007,39 +3027,64 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B6" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3074,7 +3119,7 @@
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>42050</v>
       </c>
     </row>
@@ -3082,7 +3127,7 @@
       <c r="A3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>5000</v>
       </c>
     </row>
@@ -3130,7 +3175,7 @@
       <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>2000</v>
       </c>
     </row>
